--- a/biology/Zoologie/Anthonomus_eugenii/Anthonomus_eugenii.xlsx
+++ b/biology/Zoologie/Anthonomus_eugenii/Anthonomus_eugenii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anthonomus eugenii est une espèce d'insectes coléoptères de la famille des Curculionidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Anthonomus eugenii se rencontre dans certains États du Sud des États-Unis, dans le Nord du Mexique, en Amérique centrale, dans certaines îles des Caraïbes et à Hawaï[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anthonomus eugenii se rencontre dans certains États du Sud des États-Unis, dans le Nord du Mexique, en Amérique centrale, dans certaines îles des Caraïbes et à Hawaï.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet insecte ravageur pond sur différentes espèces de Capsicum (piments) et quelques espèces du genre Solanum dont il se nourrit. Le prédateur Catolaccus hunteri de la famille des Pteromalidae est répandu pour limiter ses ravages.
 </t>
